--- a/Read_file_miniproject/point.xlsx
+++ b/Read_file_miniproject/point.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,7 +541,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Michael Jordan</t>
         </is>
@@ -624,107 +624,133 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Michael Jordan</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>35</v>
-      </c>
-      <c r="D3" t="n">
-        <v>198.12</v>
-      </c>
-      <c r="E3" t="n">
-        <v>97.975872</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>North Carolina</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>1984</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>82</v>
-      </c>
-      <c r="L3" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.336</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.174</v>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>1997-98</t>
+          <t>player_name</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>team_abbreviation</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>player_height</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>player_weight</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>draft_year</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>draft_round</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>draft_number</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>gp</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>reb</t>
+        </is>
+      </c>
+      <c r="N3" s="1" t="inlineStr">
+        <is>
+          <t>ast</t>
+        </is>
+      </c>
+      <c r="O3" s="1" t="inlineStr">
+        <is>
+          <t>net_rating</t>
+        </is>
+      </c>
+      <c r="P3" s="1" t="inlineStr">
+        <is>
+          <t>oreb_pct</t>
+        </is>
+      </c>
+      <c r="Q3" s="1" t="inlineStr">
+        <is>
+          <t>dreb_pct</t>
+        </is>
+      </c>
+      <c r="R3" s="1" t="inlineStr">
+        <is>
+          <t>usg_pct</t>
+        </is>
+      </c>
+      <c r="S3" s="1" t="inlineStr">
+        <is>
+          <t>ts_pct</t>
+        </is>
+      </c>
+      <c r="T3" s="1" t="inlineStr">
+        <is>
+          <t>ast_pct</t>
+        </is>
+      </c>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>season</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Allen Iverson</t>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Michael Jordan</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>182.88</v>
+        <v>198.12</v>
       </c>
       <c r="E4" t="n">
-        <v>74.84268</v>
+        <v>97.975872</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Georgetown</t>
+          <t>North Carolina</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -734,7 +760,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1996</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -744,128 +770,154 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="L4" t="n">
-        <v>26.8</v>
+        <v>28.7</v>
       </c>
       <c r="M4" t="n">
-        <v>4.9</v>
+        <v>5.8</v>
       </c>
       <c r="N4" t="n">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="O4" t="n">
-        <v>3.6</v>
+        <v>8.5</v>
       </c>
       <c r="P4" t="n">
-        <v>0.038</v>
+        <v>0.047</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1009999999999999</v>
+        <v>0.125</v>
       </c>
       <c r="R4" t="n">
-        <v>0.3229999999999999</v>
+        <v>0.336</v>
       </c>
       <c r="S4" t="n">
-        <v>0.508</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2339999999999999</v>
+        <v>0.174</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1998-99</t>
+          <t>1997-98</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Shaquille O'Neal</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>28</v>
-      </c>
-      <c r="D5" t="n">
-        <v>215.9</v>
-      </c>
-      <c r="E5" t="n">
-        <v>142.88148</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Louisiana State</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>1992</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>79</v>
-      </c>
-      <c r="L5" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="M5" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O5" t="n">
-        <v>11</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.1159999999999999</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.246</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.313</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.578</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.184</v>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>1999-00</t>
+          <t>player_name</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>team_abbreviation</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>player_height</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>player_weight</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>draft_year</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>draft_round</t>
+        </is>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>draft_number</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>gp</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+      <c r="M5" s="1" t="inlineStr">
+        <is>
+          <t>reb</t>
+        </is>
+      </c>
+      <c r="N5" s="1" t="inlineStr">
+        <is>
+          <t>ast</t>
+        </is>
+      </c>
+      <c r="O5" s="1" t="inlineStr">
+        <is>
+          <t>net_rating</t>
+        </is>
+      </c>
+      <c r="P5" s="1" t="inlineStr">
+        <is>
+          <t>oreb_pct</t>
+        </is>
+      </c>
+      <c r="Q5" s="1" t="inlineStr">
+        <is>
+          <t>dreb_pct</t>
+        </is>
+      </c>
+      <c r="R5" s="1" t="inlineStr">
+        <is>
+          <t>usg_pct</t>
+        </is>
+      </c>
+      <c r="S5" s="1" t="inlineStr">
+        <is>
+          <t>ts_pct</t>
+        </is>
+      </c>
+      <c r="T5" s="1" t="inlineStr">
+        <is>
+          <t>ast_pct</t>
+        </is>
+      </c>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>season</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Allen Iverson</t>
         </is>
@@ -876,7 +928,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
         <v>182.88</v>
@@ -910,145 +962,171 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="L6" t="n">
-        <v>31.1</v>
+        <v>26.8</v>
       </c>
       <c r="M6" t="n">
-        <v>3.8</v>
+        <v>4.9</v>
       </c>
       <c r="N6" t="n">
         <v>4.6</v>
       </c>
       <c r="O6" t="n">
-        <v>5.7</v>
+        <v>3.6</v>
       </c>
       <c r="P6" t="n">
-        <v>0.019</v>
+        <v>0.038</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.081</v>
+        <v>0.101</v>
       </c>
       <c r="R6" t="n">
-        <v>0.354</v>
+        <v>0.323</v>
       </c>
       <c r="S6" t="n">
-        <v>0.518</v>
+        <v>0.508</v>
       </c>
       <c r="T6" t="n">
-        <v>0.226</v>
+        <v>0.234</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>2000-01</t>
+          <t>1998-99</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Allen Iverson</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>PHI</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>27</v>
-      </c>
-      <c r="D7" t="n">
-        <v>182.88</v>
-      </c>
-      <c r="E7" t="n">
-        <v>74.84268</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Georgetown</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>1996</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>60</v>
-      </c>
-      <c r="L7" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="N7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.093</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.371</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.489</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.266</v>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>2001-02</t>
+          <t>player_name</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>team_abbreviation</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>player_height</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>player_weight</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>draft_year</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="inlineStr">
+        <is>
+          <t>draft_round</t>
+        </is>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>draft_number</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>gp</t>
+        </is>
+      </c>
+      <c r="L7" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+      <c r="M7" s="1" t="inlineStr">
+        <is>
+          <t>reb</t>
+        </is>
+      </c>
+      <c r="N7" s="1" t="inlineStr">
+        <is>
+          <t>ast</t>
+        </is>
+      </c>
+      <c r="O7" s="1" t="inlineStr">
+        <is>
+          <t>net_rating</t>
+        </is>
+      </c>
+      <c r="P7" s="1" t="inlineStr">
+        <is>
+          <t>oreb_pct</t>
+        </is>
+      </c>
+      <c r="Q7" s="1" t="inlineStr">
+        <is>
+          <t>dreb_pct</t>
+        </is>
+      </c>
+      <c r="R7" s="1" t="inlineStr">
+        <is>
+          <t>usg_pct</t>
+        </is>
+      </c>
+      <c r="S7" s="1" t="inlineStr">
+        <is>
+          <t>ts_pct</t>
+        </is>
+      </c>
+      <c r="T7" s="1" t="inlineStr">
+        <is>
+          <t>ast_pct</t>
+        </is>
+      </c>
+      <c r="U7" s="1" t="inlineStr">
+        <is>
+          <t>season</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Tracy McGrady</t>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Shaquille O'Neal</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D8" t="n">
-        <v>203.2</v>
+        <v>215.9</v>
       </c>
       <c r="E8" t="n">
-        <v>95.25432000000001</v>
+        <v>142.88148</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Louisiana State</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1058,7 +1136,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>1992</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1068,128 +1146,154 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L8" t="n">
-        <v>32.1</v>
+        <v>29.7</v>
       </c>
       <c r="M8" t="n">
-        <v>6.5</v>
+        <v>13.6</v>
       </c>
       <c r="N8" t="n">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="O8" t="n">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="P8" t="n">
-        <v>0.046</v>
+        <v>0.116</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.147</v>
+        <v>0.246</v>
       </c>
       <c r="R8" t="n">
-        <v>0.35</v>
+        <v>0.313</v>
       </c>
       <c r="S8" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.578</v>
       </c>
       <c r="T8" t="n">
-        <v>0.282</v>
+        <v>0.184</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>2002-03</t>
+          <t>1999-00</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Tracy McGrady</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ORL</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>25</v>
-      </c>
-      <c r="D9" t="n">
-        <v>203.2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>95.25432000000001</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
-        <v>67</v>
-      </c>
-      <c r="L9" t="n">
-        <v>28</v>
-      </c>
-      <c r="M9" t="n">
-        <v>6</v>
-      </c>
-      <c r="N9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>-7.1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.039</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.131</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.526</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.272</v>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>2003-04</t>
+          <t>player_name</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>team_abbreviation</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>player_height</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>player_weight</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>draft_year</t>
+        </is>
+      </c>
+      <c r="I9" s="1" t="inlineStr">
+        <is>
+          <t>draft_round</t>
+        </is>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>draft_number</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr">
+        <is>
+          <t>gp</t>
+        </is>
+      </c>
+      <c r="L9" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+      <c r="M9" s="1" t="inlineStr">
+        <is>
+          <t>reb</t>
+        </is>
+      </c>
+      <c r="N9" s="1" t="inlineStr">
+        <is>
+          <t>ast</t>
+        </is>
+      </c>
+      <c r="O9" s="1" t="inlineStr">
+        <is>
+          <t>net_rating</t>
+        </is>
+      </c>
+      <c r="P9" s="1" t="inlineStr">
+        <is>
+          <t>oreb_pct</t>
+        </is>
+      </c>
+      <c r="Q9" s="1" t="inlineStr">
+        <is>
+          <t>dreb_pct</t>
+        </is>
+      </c>
+      <c r="R9" s="1" t="inlineStr">
+        <is>
+          <t>usg_pct</t>
+        </is>
+      </c>
+      <c r="S9" s="1" t="inlineStr">
+        <is>
+          <t>ts_pct</t>
+        </is>
+      </c>
+      <c r="T9" s="1" t="inlineStr">
+        <is>
+          <t>ast_pct</t>
+        </is>
+      </c>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>season</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Allen Iverson</t>
         </is>
@@ -1200,7 +1304,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D10" t="n">
         <v>182.88</v>
@@ -1234,145 +1338,171 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L10" t="n">
-        <v>30.7</v>
+        <v>31.1</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="N10" t="n">
-        <v>7.9</v>
+        <v>4.6</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3</v>
+        <v>5.7</v>
       </c>
       <c r="P10" t="n">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.089</v>
+        <v>0.081</v>
       </c>
       <c r="R10" t="n">
-        <v>0.347</v>
+        <v>0.354</v>
       </c>
       <c r="S10" t="n">
-        <v>0.532</v>
+        <v>0.518</v>
       </c>
       <c r="T10" t="n">
-        <v>0.361</v>
+        <v>0.226</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>2004-05</t>
+          <t>2000-01</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Kobe Bryant</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>27</v>
-      </c>
-      <c r="D11" t="n">
-        <v>198.12</v>
-      </c>
-      <c r="E11" t="n">
-        <v>99.79024</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>1996</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
-        <v>80</v>
-      </c>
-      <c r="L11" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O11" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.127</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.384</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.5589999999999999</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0.228</v>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>2005-06</t>
+          <t>player_name</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>team_abbreviation</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>player_height</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>player_weight</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr">
+        <is>
+          <t>draft_year</t>
+        </is>
+      </c>
+      <c r="I11" s="1" t="inlineStr">
+        <is>
+          <t>draft_round</t>
+        </is>
+      </c>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>draft_number</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="inlineStr">
+        <is>
+          <t>gp</t>
+        </is>
+      </c>
+      <c r="L11" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+      <c r="M11" s="1" t="inlineStr">
+        <is>
+          <t>reb</t>
+        </is>
+      </c>
+      <c r="N11" s="1" t="inlineStr">
+        <is>
+          <t>ast</t>
+        </is>
+      </c>
+      <c r="O11" s="1" t="inlineStr">
+        <is>
+          <t>net_rating</t>
+        </is>
+      </c>
+      <c r="P11" s="1" t="inlineStr">
+        <is>
+          <t>oreb_pct</t>
+        </is>
+      </c>
+      <c r="Q11" s="1" t="inlineStr">
+        <is>
+          <t>dreb_pct</t>
+        </is>
+      </c>
+      <c r="R11" s="1" t="inlineStr">
+        <is>
+          <t>usg_pct</t>
+        </is>
+      </c>
+      <c r="S11" s="1" t="inlineStr">
+        <is>
+          <t>ts_pct</t>
+        </is>
+      </c>
+      <c r="T11" s="1" t="inlineStr">
+        <is>
+          <t>ast_pct</t>
+        </is>
+      </c>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>season</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Kobe Bryant</t>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Allen Iverson</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" t="n">
-        <v>198.12</v>
+        <v>182.88</v>
       </c>
       <c r="E12" t="n">
-        <v>99.79024</v>
+        <v>74.84268</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Georgetown</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1392,149 +1522,175 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="L12" t="n">
-        <v>31.6</v>
+        <v>31.4</v>
       </c>
       <c r="M12" t="n">
-        <v>5.7</v>
+        <v>4.5</v>
       </c>
       <c r="N12" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6</v>
+        <v>5.1</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0279999999999999</v>
+        <v>0.019</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.132</v>
+        <v>0.093</v>
       </c>
       <c r="R12" t="n">
-        <v>0.3329999999999999</v>
+        <v>0.371</v>
       </c>
       <c r="S12" t="n">
-        <v>0.58</v>
+        <v>0.489</v>
       </c>
       <c r="T12" t="n">
-        <v>0.249</v>
+        <v>0.266</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>2006-07</t>
+          <t>2001-02</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>LeBron James</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>23</v>
-      </c>
-      <c r="D13" t="n">
-        <v>203.2</v>
-      </c>
-      <c r="E13" t="n">
-        <v>113.398</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K13" t="n">
-        <v>75</v>
-      </c>
-      <c r="L13" t="n">
-        <v>30</v>
-      </c>
-      <c r="M13" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="N13" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="O13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.049</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.178</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.3329999999999999</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0.5679999999999999</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0.352</v>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>2007-08</t>
+          <t>player_name</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>team_abbreviation</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>player_height</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>player_weight</t>
+        </is>
+      </c>
+      <c r="F13" s="1" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="G13" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="H13" s="1" t="inlineStr">
+        <is>
+          <t>draft_year</t>
+        </is>
+      </c>
+      <c r="I13" s="1" t="inlineStr">
+        <is>
+          <t>draft_round</t>
+        </is>
+      </c>
+      <c r="J13" s="1" t="inlineStr">
+        <is>
+          <t>draft_number</t>
+        </is>
+      </c>
+      <c r="K13" s="1" t="inlineStr">
+        <is>
+          <t>gp</t>
+        </is>
+      </c>
+      <c r="L13" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+      <c r="M13" s="1" t="inlineStr">
+        <is>
+          <t>reb</t>
+        </is>
+      </c>
+      <c r="N13" s="1" t="inlineStr">
+        <is>
+          <t>ast</t>
+        </is>
+      </c>
+      <c r="O13" s="1" t="inlineStr">
+        <is>
+          <t>net_rating</t>
+        </is>
+      </c>
+      <c r="P13" s="1" t="inlineStr">
+        <is>
+          <t>oreb_pct</t>
+        </is>
+      </c>
+      <c r="Q13" s="1" t="inlineStr">
+        <is>
+          <t>dreb_pct</t>
+        </is>
+      </c>
+      <c r="R13" s="1" t="inlineStr">
+        <is>
+          <t>usg_pct</t>
+        </is>
+      </c>
+      <c r="S13" s="1" t="inlineStr">
+        <is>
+          <t>ts_pct</t>
+        </is>
+      </c>
+      <c r="T13" s="1" t="inlineStr">
+        <is>
+          <t>ast_pct</t>
+        </is>
+      </c>
+      <c r="U13" s="1" t="inlineStr">
+        <is>
+          <t>season</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Dwyane Wade</t>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Tracy McGrady</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D14" t="n">
-        <v>193.04</v>
+        <v>203.2</v>
       </c>
       <c r="E14" t="n">
-        <v>97.975872</v>
+        <v>95.25431999999999</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Marquette</t>
+          <t>None</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1544,7 +1700,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1554,149 +1710,175 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L14" t="n">
-        <v>30.2</v>
+        <v>32.1</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="N14" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="O14" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P14" t="n">
-        <v>0.035</v>
+        <v>0.046</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.121</v>
+        <v>0.147</v>
       </c>
       <c r="R14" t="n">
-        <v>0.356</v>
+        <v>0.35</v>
       </c>
       <c r="S14" t="n">
-        <v>0.574</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="T14" t="n">
-        <v>0.377</v>
+        <v>0.282</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>2008-09</t>
+          <t>2002-03</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Kevin Durant</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>OKC</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>21</v>
-      </c>
-      <c r="D15" t="n">
-        <v>205.74</v>
-      </c>
-      <c r="E15" t="n">
-        <v>104.32616</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Texas</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K15" t="n">
-        <v>82</v>
-      </c>
-      <c r="L15" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="M15" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="O15" t="n">
-        <v>7</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.038</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.317</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0.607</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>2009-10</t>
+          <t>player_name</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>team_abbreviation</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>player_height</t>
+        </is>
+      </c>
+      <c r="E15" s="1" t="inlineStr">
+        <is>
+          <t>player_weight</t>
+        </is>
+      </c>
+      <c r="F15" s="1" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="G15" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="H15" s="1" t="inlineStr">
+        <is>
+          <t>draft_year</t>
+        </is>
+      </c>
+      <c r="I15" s="1" t="inlineStr">
+        <is>
+          <t>draft_round</t>
+        </is>
+      </c>
+      <c r="J15" s="1" t="inlineStr">
+        <is>
+          <t>draft_number</t>
+        </is>
+      </c>
+      <c r="K15" s="1" t="inlineStr">
+        <is>
+          <t>gp</t>
+        </is>
+      </c>
+      <c r="L15" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+      <c r="M15" s="1" t="inlineStr">
+        <is>
+          <t>reb</t>
+        </is>
+      </c>
+      <c r="N15" s="1" t="inlineStr">
+        <is>
+          <t>ast</t>
+        </is>
+      </c>
+      <c r="O15" s="1" t="inlineStr">
+        <is>
+          <t>net_rating</t>
+        </is>
+      </c>
+      <c r="P15" s="1" t="inlineStr">
+        <is>
+          <t>oreb_pct</t>
+        </is>
+      </c>
+      <c r="Q15" s="1" t="inlineStr">
+        <is>
+          <t>dreb_pct</t>
+        </is>
+      </c>
+      <c r="R15" s="1" t="inlineStr">
+        <is>
+          <t>usg_pct</t>
+        </is>
+      </c>
+      <c r="S15" s="1" t="inlineStr">
+        <is>
+          <t>ts_pct</t>
+        </is>
+      </c>
+      <c r="T15" s="1" t="inlineStr">
+        <is>
+          <t>ast_pct</t>
+        </is>
+      </c>
+      <c r="U15" s="1" t="inlineStr">
+        <is>
+          <t>season</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Kevin Durant</t>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Tracy McGrady</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>205.74</v>
+        <v>203.2</v>
       </c>
       <c r="E16" t="n">
-        <v>104.32616</v>
+        <v>95.25431999999999</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Texas</t>
+          <t>None</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1706,7 +1888,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1716,149 +1898,175 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="L16" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="M16" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="N16" t="n">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="O16" t="n">
-        <v>4.7</v>
+        <v>-7.1</v>
       </c>
       <c r="P16" t="n">
-        <v>0.023</v>
+        <v>0.039</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.174</v>
+        <v>0.131</v>
       </c>
       <c r="R16" t="n">
-        <v>0.302</v>
+        <v>0.33</v>
       </c>
       <c r="S16" t="n">
-        <v>0.589</v>
+        <v>0.526</v>
       </c>
       <c r="T16" t="n">
-        <v>0.127</v>
+        <v>0.272</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>2010-11</t>
+          <t>2003-04</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Kevin Durant</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>OKC</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>23</v>
-      </c>
-      <c r="D17" t="n">
-        <v>205.74</v>
-      </c>
-      <c r="E17" t="n">
-        <v>106.59412</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Texas</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K17" t="n">
-        <v>66</v>
-      </c>
-      <c r="L17" t="n">
-        <v>28</v>
-      </c>
-      <c r="M17" t="n">
-        <v>8</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O17" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0.308</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>2011-12</t>
+          <t>player_name</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>team_abbreviation</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>player_height</t>
+        </is>
+      </c>
+      <c r="E17" s="1" t="inlineStr">
+        <is>
+          <t>player_weight</t>
+        </is>
+      </c>
+      <c r="F17" s="1" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="G17" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="H17" s="1" t="inlineStr">
+        <is>
+          <t>draft_year</t>
+        </is>
+      </c>
+      <c r="I17" s="1" t="inlineStr">
+        <is>
+          <t>draft_round</t>
+        </is>
+      </c>
+      <c r="J17" s="1" t="inlineStr">
+        <is>
+          <t>draft_number</t>
+        </is>
+      </c>
+      <c r="K17" s="1" t="inlineStr">
+        <is>
+          <t>gp</t>
+        </is>
+      </c>
+      <c r="L17" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+      <c r="M17" s="1" t="inlineStr">
+        <is>
+          <t>reb</t>
+        </is>
+      </c>
+      <c r="N17" s="1" t="inlineStr">
+        <is>
+          <t>ast</t>
+        </is>
+      </c>
+      <c r="O17" s="1" t="inlineStr">
+        <is>
+          <t>net_rating</t>
+        </is>
+      </c>
+      <c r="P17" s="1" t="inlineStr">
+        <is>
+          <t>oreb_pct</t>
+        </is>
+      </c>
+      <c r="Q17" s="1" t="inlineStr">
+        <is>
+          <t>dreb_pct</t>
+        </is>
+      </c>
+      <c r="R17" s="1" t="inlineStr">
+        <is>
+          <t>usg_pct</t>
+        </is>
+      </c>
+      <c r="S17" s="1" t="inlineStr">
+        <is>
+          <t>ts_pct</t>
+        </is>
+      </c>
+      <c r="T17" s="1" t="inlineStr">
+        <is>
+          <t>ast_pct</t>
+        </is>
+      </c>
+      <c r="U17" s="1" t="inlineStr">
+        <is>
+          <t>season</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Carmelo Anthony</t>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Allen Iverson</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>203.2</v>
+        <v>182.88</v>
       </c>
       <c r="E18" t="n">
-        <v>104.32616</v>
+        <v>74.84268</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Syracuse</t>
+          <t>Georgetown</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1868,7 +2076,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>1996</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1878,149 +2086,175 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="L18" t="n">
-        <v>28.7</v>
+        <v>30.7</v>
       </c>
       <c r="M18" t="n">
-        <v>6.9</v>
+        <v>4</v>
       </c>
       <c r="N18" t="n">
-        <v>2.6</v>
+        <v>7.9</v>
       </c>
       <c r="O18" t="n">
-        <v>6.2</v>
+        <v>0.3</v>
       </c>
       <c r="P18" t="n">
-        <v>0.061</v>
+        <v>0.018</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.158</v>
+        <v>0.08900000000000001</v>
       </c>
       <c r="R18" t="n">
-        <v>0.353</v>
+        <v>0.347</v>
       </c>
       <c r="S18" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.532</v>
       </c>
       <c r="T18" t="n">
-        <v>0.1369999999999999</v>
+        <v>0.361</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2012-13</t>
+          <t>2004-05</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Kevin Durant</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>OKC</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>25</v>
-      </c>
-      <c r="D19" t="n">
-        <v>205.74</v>
-      </c>
-      <c r="E19" t="n">
-        <v>108.86208</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Texas</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K19" t="n">
-        <v>81</v>
-      </c>
-      <c r="L19" t="n">
-        <v>32</v>
-      </c>
-      <c r="M19" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="N19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O19" t="n">
-        <v>8</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0.022</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.184</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0.327</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0.635</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0.259</v>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>2013-14</t>
+          <t>player_name</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>team_abbreviation</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="D19" s="1" t="inlineStr">
+        <is>
+          <t>player_height</t>
+        </is>
+      </c>
+      <c r="E19" s="1" t="inlineStr">
+        <is>
+          <t>player_weight</t>
+        </is>
+      </c>
+      <c r="F19" s="1" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="G19" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="H19" s="1" t="inlineStr">
+        <is>
+          <t>draft_year</t>
+        </is>
+      </c>
+      <c r="I19" s="1" t="inlineStr">
+        <is>
+          <t>draft_round</t>
+        </is>
+      </c>
+      <c r="J19" s="1" t="inlineStr">
+        <is>
+          <t>draft_number</t>
+        </is>
+      </c>
+      <c r="K19" s="1" t="inlineStr">
+        <is>
+          <t>gp</t>
+        </is>
+      </c>
+      <c r="L19" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+      <c r="M19" s="1" t="inlineStr">
+        <is>
+          <t>reb</t>
+        </is>
+      </c>
+      <c r="N19" s="1" t="inlineStr">
+        <is>
+          <t>ast</t>
+        </is>
+      </c>
+      <c r="O19" s="1" t="inlineStr">
+        <is>
+          <t>net_rating</t>
+        </is>
+      </c>
+      <c r="P19" s="1" t="inlineStr">
+        <is>
+          <t>oreb_pct</t>
+        </is>
+      </c>
+      <c r="Q19" s="1" t="inlineStr">
+        <is>
+          <t>dreb_pct</t>
+        </is>
+      </c>
+      <c r="R19" s="1" t="inlineStr">
+        <is>
+          <t>usg_pct</t>
+        </is>
+      </c>
+      <c r="S19" s="1" t="inlineStr">
+        <is>
+          <t>ts_pct</t>
+        </is>
+      </c>
+      <c r="T19" s="1" t="inlineStr">
+        <is>
+          <t>ast_pct</t>
+        </is>
+      </c>
+      <c r="U19" s="1" t="inlineStr">
+        <is>
+          <t>season</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Russell Westbrook</t>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Kobe Bryant</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="n">
-        <v>190.5</v>
+        <v>198.12</v>
       </c>
       <c r="E20" t="n">
-        <v>90.7184</v>
+        <v>99.79024</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>UCLA</t>
+          <t>None</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2030,7 +2264,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>1996</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2040,149 +2274,175 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="L20" t="n">
-        <v>28.1</v>
+        <v>35.4</v>
       </c>
       <c r="M20" t="n">
-        <v>7.3</v>
+        <v>5.3</v>
       </c>
       <c r="N20" t="n">
-        <v>8.6</v>
+        <v>4.5</v>
       </c>
       <c r="O20" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="P20" t="n">
-        <v>0.059</v>
+        <v>0.026</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.1669999999999999</v>
+        <v>0.127</v>
       </c>
       <c r="R20" t="n">
-        <v>0.372</v>
+        <v>0.384</v>
       </c>
       <c r="S20" t="n">
-        <v>0.536</v>
+        <v>0.5589999999999999</v>
       </c>
       <c r="T20" t="n">
-        <v>0.43</v>
+        <v>0.228</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>2014-15</t>
+          <t>2005-06</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>GSW</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>28</v>
-      </c>
-      <c r="D21" t="n">
-        <v>190.5</v>
-      </c>
-      <c r="E21" t="n">
-        <v>86.18248</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Davidson</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
-        <v>79</v>
-      </c>
-      <c r="L21" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="N21" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="O21" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0.0289999999999999</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0.131</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0.669</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0.315</v>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>2015-16</t>
+          <t>player_name</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>team_abbreviation</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="D21" s="1" t="inlineStr">
+        <is>
+          <t>player_height</t>
+        </is>
+      </c>
+      <c r="E21" s="1" t="inlineStr">
+        <is>
+          <t>player_weight</t>
+        </is>
+      </c>
+      <c r="F21" s="1" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="G21" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="H21" s="1" t="inlineStr">
+        <is>
+          <t>draft_year</t>
+        </is>
+      </c>
+      <c r="I21" s="1" t="inlineStr">
+        <is>
+          <t>draft_round</t>
+        </is>
+      </c>
+      <c r="J21" s="1" t="inlineStr">
+        <is>
+          <t>draft_number</t>
+        </is>
+      </c>
+      <c r="K21" s="1" t="inlineStr">
+        <is>
+          <t>gp</t>
+        </is>
+      </c>
+      <c r="L21" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+      <c r="M21" s="1" t="inlineStr">
+        <is>
+          <t>reb</t>
+        </is>
+      </c>
+      <c r="N21" s="1" t="inlineStr">
+        <is>
+          <t>ast</t>
+        </is>
+      </c>
+      <c r="O21" s="1" t="inlineStr">
+        <is>
+          <t>net_rating</t>
+        </is>
+      </c>
+      <c r="P21" s="1" t="inlineStr">
+        <is>
+          <t>oreb_pct</t>
+        </is>
+      </c>
+      <c r="Q21" s="1" t="inlineStr">
+        <is>
+          <t>dreb_pct</t>
+        </is>
+      </c>
+      <c r="R21" s="1" t="inlineStr">
+        <is>
+          <t>usg_pct</t>
+        </is>
+      </c>
+      <c r="S21" s="1" t="inlineStr">
+        <is>
+          <t>ts_pct</t>
+        </is>
+      </c>
+      <c r="T21" s="1" t="inlineStr">
+        <is>
+          <t>ast_pct</t>
+        </is>
+      </c>
+      <c r="U21" s="1" t="inlineStr">
+        <is>
+          <t>season</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Russell Westbrook</t>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Kobe Bryant</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>28</v>
       </c>
       <c r="D22" t="n">
-        <v>190.5</v>
+        <v>198.12</v>
       </c>
       <c r="E22" t="n">
-        <v>90.7184</v>
+        <v>99.79024</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>UCLA</t>
+          <t>None</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2192,7 +2452,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>1996</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2202,149 +2462,175 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L22" t="n">
         <v>31.6</v>
       </c>
       <c r="M22" t="n">
-        <v>10.7</v>
+        <v>5.7</v>
       </c>
       <c r="N22" t="n">
-        <v>10.4</v>
+        <v>5.4</v>
       </c>
       <c r="O22" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="P22" t="n">
-        <v>0.053</v>
+        <v>0.028</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.2789999999999999</v>
+        <v>0.132</v>
       </c>
       <c r="R22" t="n">
-        <v>0.408</v>
+        <v>0.333</v>
       </c>
       <c r="S22" t="n">
-        <v>0.5539999999999999</v>
+        <v>0.58</v>
       </c>
       <c r="T22" t="n">
-        <v>0.5429999999999999</v>
+        <v>0.249</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>2016-17</t>
+          <t>2006-07</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>James Harden</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>28</v>
-      </c>
-      <c r="D23" t="n">
-        <v>195.58</v>
-      </c>
-      <c r="E23" t="n">
-        <v>99.79024</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Arizona State</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K23" t="n">
-        <v>72</v>
-      </c>
-      <c r="L23" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="M23" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="N23" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="O23" t="n">
-        <v>10</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0.1369999999999999</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0.619</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0.449</v>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>2017-18</t>
+          <t>player_name</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>team_abbreviation</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t>player_height</t>
+        </is>
+      </c>
+      <c r="E23" s="1" t="inlineStr">
+        <is>
+          <t>player_weight</t>
+        </is>
+      </c>
+      <c r="F23" s="1" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="G23" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="H23" s="1" t="inlineStr">
+        <is>
+          <t>draft_year</t>
+        </is>
+      </c>
+      <c r="I23" s="1" t="inlineStr">
+        <is>
+          <t>draft_round</t>
+        </is>
+      </c>
+      <c r="J23" s="1" t="inlineStr">
+        <is>
+          <t>draft_number</t>
+        </is>
+      </c>
+      <c r="K23" s="1" t="inlineStr">
+        <is>
+          <t>gp</t>
+        </is>
+      </c>
+      <c r="L23" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+      <c r="M23" s="1" t="inlineStr">
+        <is>
+          <t>reb</t>
+        </is>
+      </c>
+      <c r="N23" s="1" t="inlineStr">
+        <is>
+          <t>ast</t>
+        </is>
+      </c>
+      <c r="O23" s="1" t="inlineStr">
+        <is>
+          <t>net_rating</t>
+        </is>
+      </c>
+      <c r="P23" s="1" t="inlineStr">
+        <is>
+          <t>oreb_pct</t>
+        </is>
+      </c>
+      <c r="Q23" s="1" t="inlineStr">
+        <is>
+          <t>dreb_pct</t>
+        </is>
+      </c>
+      <c r="R23" s="1" t="inlineStr">
+        <is>
+          <t>usg_pct</t>
+        </is>
+      </c>
+      <c r="S23" s="1" t="inlineStr">
+        <is>
+          <t>ts_pct</t>
+        </is>
+      </c>
+      <c r="T23" s="1" t="inlineStr">
+        <is>
+          <t>ast_pct</t>
+        </is>
+      </c>
+      <c r="U23" s="1" t="inlineStr">
+        <is>
+          <t>season</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>James Harden</t>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>LeBron James</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D24" t="n">
-        <v>195.58</v>
+        <v>203.2</v>
       </c>
       <c r="E24" t="n">
-        <v>99.79024</v>
+        <v>113.398</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Arizona State</t>
+          <t>None</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2354,7 +2640,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2364,208 +2650,2490 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L24" t="n">
-        <v>36.1</v>
+        <v>30</v>
       </c>
       <c r="M24" t="n">
-        <v>6.6</v>
+        <v>7.9</v>
       </c>
       <c r="N24" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="O24" t="n">
-        <v>6.3</v>
+        <v>2.4</v>
       </c>
       <c r="P24" t="n">
-        <v>0.023</v>
+        <v>0.049</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.157</v>
+        <v>0.178</v>
       </c>
       <c r="R24" t="n">
-        <v>0.396</v>
+        <v>0.333</v>
       </c>
       <c r="S24" t="n">
-        <v>0.616</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3939999999999999</v>
+        <v>0.352</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>2018-19</t>
+          <t>2007-08</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>James Harden</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>30</v>
-      </c>
-      <c r="D25" t="n">
-        <v>195.58</v>
-      </c>
-      <c r="E25" t="n">
-        <v>99.79024</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Arizona State</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K25" t="n">
-        <v>68</v>
-      </c>
-      <c r="L25" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="M25" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="N25" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O25" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0.356</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0.626</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0.366</v>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>2019-20</t>
+          <t>player_name</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>team_abbreviation</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="D25" s="1" t="inlineStr">
+        <is>
+          <t>player_height</t>
+        </is>
+      </c>
+      <c r="E25" s="1" t="inlineStr">
+        <is>
+          <t>player_weight</t>
+        </is>
+      </c>
+      <c r="F25" s="1" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="G25" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="H25" s="1" t="inlineStr">
+        <is>
+          <t>draft_year</t>
+        </is>
+      </c>
+      <c r="I25" s="1" t="inlineStr">
+        <is>
+          <t>draft_round</t>
+        </is>
+      </c>
+      <c r="J25" s="1" t="inlineStr">
+        <is>
+          <t>draft_number</t>
+        </is>
+      </c>
+      <c r="K25" s="1" t="inlineStr">
+        <is>
+          <t>gp</t>
+        </is>
+      </c>
+      <c r="L25" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+      <c r="M25" s="1" t="inlineStr">
+        <is>
+          <t>reb</t>
+        </is>
+      </c>
+      <c r="N25" s="1" t="inlineStr">
+        <is>
+          <t>ast</t>
+        </is>
+      </c>
+      <c r="O25" s="1" t="inlineStr">
+        <is>
+          <t>net_rating</t>
+        </is>
+      </c>
+      <c r="P25" s="1" t="inlineStr">
+        <is>
+          <t>oreb_pct</t>
+        </is>
+      </c>
+      <c r="Q25" s="1" t="inlineStr">
+        <is>
+          <t>dreb_pct</t>
+        </is>
+      </c>
+      <c r="R25" s="1" t="inlineStr">
+        <is>
+          <t>usg_pct</t>
+        </is>
+      </c>
+      <c r="S25" s="1" t="inlineStr">
+        <is>
+          <t>ts_pct</t>
+        </is>
+      </c>
+      <c r="T25" s="1" t="inlineStr">
+        <is>
+          <t>ast_pct</t>
+        </is>
+      </c>
+      <c r="U25" s="1" t="inlineStr">
+        <is>
+          <t>season</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Dwyane Wade</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>27</v>
+      </c>
+      <c r="D26" t="n">
+        <v>193.04</v>
+      </c>
+      <c r="E26" t="n">
+        <v>97.975872</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Marquette</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>79</v>
+      </c>
+      <c r="L26" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>2008-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>player_name</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>team_abbreviation</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="D27" s="1" t="inlineStr">
+        <is>
+          <t>player_height</t>
+        </is>
+      </c>
+      <c r="E27" s="1" t="inlineStr">
+        <is>
+          <t>player_weight</t>
+        </is>
+      </c>
+      <c r="F27" s="1" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="G27" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="H27" s="1" t="inlineStr">
+        <is>
+          <t>draft_year</t>
+        </is>
+      </c>
+      <c r="I27" s="1" t="inlineStr">
+        <is>
+          <t>draft_round</t>
+        </is>
+      </c>
+      <c r="J27" s="1" t="inlineStr">
+        <is>
+          <t>draft_number</t>
+        </is>
+      </c>
+      <c r="K27" s="1" t="inlineStr">
+        <is>
+          <t>gp</t>
+        </is>
+      </c>
+      <c r="L27" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+      <c r="M27" s="1" t="inlineStr">
+        <is>
+          <t>reb</t>
+        </is>
+      </c>
+      <c r="N27" s="1" t="inlineStr">
+        <is>
+          <t>ast</t>
+        </is>
+      </c>
+      <c r="O27" s="1" t="inlineStr">
+        <is>
+          <t>net_rating</t>
+        </is>
+      </c>
+      <c r="P27" s="1" t="inlineStr">
+        <is>
+          <t>oreb_pct</t>
+        </is>
+      </c>
+      <c r="Q27" s="1" t="inlineStr">
+        <is>
+          <t>dreb_pct</t>
+        </is>
+      </c>
+      <c r="R27" s="1" t="inlineStr">
+        <is>
+          <t>usg_pct</t>
+        </is>
+      </c>
+      <c r="S27" s="1" t="inlineStr">
+        <is>
+          <t>ts_pct</t>
+        </is>
+      </c>
+      <c r="T27" s="1" t="inlineStr">
+        <is>
+          <t>ast_pct</t>
+        </is>
+      </c>
+      <c r="U27" s="1" t="inlineStr">
+        <is>
+          <t>season</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Kevin Durant</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>21</v>
+      </c>
+      <c r="D28" t="n">
+        <v>205.74</v>
+      </c>
+      <c r="E28" t="n">
+        <v>104.32616</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Texas</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>82</v>
+      </c>
+      <c r="L28" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="M28" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O28" t="n">
+        <v>7</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.607</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>2009-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>player_name</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>team_abbreviation</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="D29" s="1" t="inlineStr">
+        <is>
+          <t>player_height</t>
+        </is>
+      </c>
+      <c r="E29" s="1" t="inlineStr">
+        <is>
+          <t>player_weight</t>
+        </is>
+      </c>
+      <c r="F29" s="1" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="G29" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="H29" s="1" t="inlineStr">
+        <is>
+          <t>draft_year</t>
+        </is>
+      </c>
+      <c r="I29" s="1" t="inlineStr">
+        <is>
+          <t>draft_round</t>
+        </is>
+      </c>
+      <c r="J29" s="1" t="inlineStr">
+        <is>
+          <t>draft_number</t>
+        </is>
+      </c>
+      <c r="K29" s="1" t="inlineStr">
+        <is>
+          <t>gp</t>
+        </is>
+      </c>
+      <c r="L29" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+      <c r="M29" s="1" t="inlineStr">
+        <is>
+          <t>reb</t>
+        </is>
+      </c>
+      <c r="N29" s="1" t="inlineStr">
+        <is>
+          <t>ast</t>
+        </is>
+      </c>
+      <c r="O29" s="1" t="inlineStr">
+        <is>
+          <t>net_rating</t>
+        </is>
+      </c>
+      <c r="P29" s="1" t="inlineStr">
+        <is>
+          <t>oreb_pct</t>
+        </is>
+      </c>
+      <c r="Q29" s="1" t="inlineStr">
+        <is>
+          <t>dreb_pct</t>
+        </is>
+      </c>
+      <c r="R29" s="1" t="inlineStr">
+        <is>
+          <t>usg_pct</t>
+        </is>
+      </c>
+      <c r="S29" s="1" t="inlineStr">
+        <is>
+          <t>ts_pct</t>
+        </is>
+      </c>
+      <c r="T29" s="1" t="inlineStr">
+        <is>
+          <t>ast_pct</t>
+        </is>
+      </c>
+      <c r="U29" s="1" t="inlineStr">
+        <is>
+          <t>season</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Kevin Durant</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>22</v>
+      </c>
+      <c r="D30" t="n">
+        <v>205.74</v>
+      </c>
+      <c r="E30" t="n">
+        <v>104.32616</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Texas</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>78</v>
+      </c>
+      <c r="L30" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="M30" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O30" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.302</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.589</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>2010-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>player_name</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>team_abbreviation</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="D31" s="1" t="inlineStr">
+        <is>
+          <t>player_height</t>
+        </is>
+      </c>
+      <c r="E31" s="1" t="inlineStr">
+        <is>
+          <t>player_weight</t>
+        </is>
+      </c>
+      <c r="F31" s="1" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="G31" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="H31" s="1" t="inlineStr">
+        <is>
+          <t>draft_year</t>
+        </is>
+      </c>
+      <c r="I31" s="1" t="inlineStr">
+        <is>
+          <t>draft_round</t>
+        </is>
+      </c>
+      <c r="J31" s="1" t="inlineStr">
+        <is>
+          <t>draft_number</t>
+        </is>
+      </c>
+      <c r="K31" s="1" t="inlineStr">
+        <is>
+          <t>gp</t>
+        </is>
+      </c>
+      <c r="L31" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+      <c r="M31" s="1" t="inlineStr">
+        <is>
+          <t>reb</t>
+        </is>
+      </c>
+      <c r="N31" s="1" t="inlineStr">
+        <is>
+          <t>ast</t>
+        </is>
+      </c>
+      <c r="O31" s="1" t="inlineStr">
+        <is>
+          <t>net_rating</t>
+        </is>
+      </c>
+      <c r="P31" s="1" t="inlineStr">
+        <is>
+          <t>oreb_pct</t>
+        </is>
+      </c>
+      <c r="Q31" s="1" t="inlineStr">
+        <is>
+          <t>dreb_pct</t>
+        </is>
+      </c>
+      <c r="R31" s="1" t="inlineStr">
+        <is>
+          <t>usg_pct</t>
+        </is>
+      </c>
+      <c r="S31" s="1" t="inlineStr">
+        <is>
+          <t>ts_pct</t>
+        </is>
+      </c>
+      <c r="T31" s="1" t="inlineStr">
+        <is>
+          <t>ast_pct</t>
+        </is>
+      </c>
+      <c r="U31" s="1" t="inlineStr">
+        <is>
+          <t>season</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Kevin Durant</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>23</v>
+      </c>
+      <c r="D32" t="n">
+        <v>205.74</v>
+      </c>
+      <c r="E32" t="n">
+        <v>106.59412</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Texas</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>66</v>
+      </c>
+      <c r="L32" t="n">
+        <v>28</v>
+      </c>
+      <c r="M32" t="n">
+        <v>8</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O32" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>2011-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>player_name</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>team_abbreviation</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="D33" s="1" t="inlineStr">
+        <is>
+          <t>player_height</t>
+        </is>
+      </c>
+      <c r="E33" s="1" t="inlineStr">
+        <is>
+          <t>player_weight</t>
+        </is>
+      </c>
+      <c r="F33" s="1" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="G33" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="H33" s="1" t="inlineStr">
+        <is>
+          <t>draft_year</t>
+        </is>
+      </c>
+      <c r="I33" s="1" t="inlineStr">
+        <is>
+          <t>draft_round</t>
+        </is>
+      </c>
+      <c r="J33" s="1" t="inlineStr">
+        <is>
+          <t>draft_number</t>
+        </is>
+      </c>
+      <c r="K33" s="1" t="inlineStr">
+        <is>
+          <t>gp</t>
+        </is>
+      </c>
+      <c r="L33" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+      <c r="M33" s="1" t="inlineStr">
+        <is>
+          <t>reb</t>
+        </is>
+      </c>
+      <c r="N33" s="1" t="inlineStr">
+        <is>
+          <t>ast</t>
+        </is>
+      </c>
+      <c r="O33" s="1" t="inlineStr">
+        <is>
+          <t>net_rating</t>
+        </is>
+      </c>
+      <c r="P33" s="1" t="inlineStr">
+        <is>
+          <t>oreb_pct</t>
+        </is>
+      </c>
+      <c r="Q33" s="1" t="inlineStr">
+        <is>
+          <t>dreb_pct</t>
+        </is>
+      </c>
+      <c r="R33" s="1" t="inlineStr">
+        <is>
+          <t>usg_pct</t>
+        </is>
+      </c>
+      <c r="S33" s="1" t="inlineStr">
+        <is>
+          <t>ts_pct</t>
+        </is>
+      </c>
+      <c r="T33" s="1" t="inlineStr">
+        <is>
+          <t>ast_pct</t>
+        </is>
+      </c>
+      <c r="U33" s="1" t="inlineStr">
+        <is>
+          <t>season</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Carmelo Anthony</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>29</v>
+      </c>
+      <c r="D34" t="n">
+        <v>203.2</v>
+      </c>
+      <c r="E34" t="n">
+        <v>104.32616</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Syracuse</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>67</v>
+      </c>
+      <c r="L34" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="M34" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O34" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>2012-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>player_name</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>team_abbreviation</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="D35" s="1" t="inlineStr">
+        <is>
+          <t>player_height</t>
+        </is>
+      </c>
+      <c r="E35" s="1" t="inlineStr">
+        <is>
+          <t>player_weight</t>
+        </is>
+      </c>
+      <c r="F35" s="1" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="G35" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="H35" s="1" t="inlineStr">
+        <is>
+          <t>draft_year</t>
+        </is>
+      </c>
+      <c r="I35" s="1" t="inlineStr">
+        <is>
+          <t>draft_round</t>
+        </is>
+      </c>
+      <c r="J35" s="1" t="inlineStr">
+        <is>
+          <t>draft_number</t>
+        </is>
+      </c>
+      <c r="K35" s="1" t="inlineStr">
+        <is>
+          <t>gp</t>
+        </is>
+      </c>
+      <c r="L35" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+      <c r="M35" s="1" t="inlineStr">
+        <is>
+          <t>reb</t>
+        </is>
+      </c>
+      <c r="N35" s="1" t="inlineStr">
+        <is>
+          <t>ast</t>
+        </is>
+      </c>
+      <c r="O35" s="1" t="inlineStr">
+        <is>
+          <t>net_rating</t>
+        </is>
+      </c>
+      <c r="P35" s="1" t="inlineStr">
+        <is>
+          <t>oreb_pct</t>
+        </is>
+      </c>
+      <c r="Q35" s="1" t="inlineStr">
+        <is>
+          <t>dreb_pct</t>
+        </is>
+      </c>
+      <c r="R35" s="1" t="inlineStr">
+        <is>
+          <t>usg_pct</t>
+        </is>
+      </c>
+      <c r="S35" s="1" t="inlineStr">
+        <is>
+          <t>ts_pct</t>
+        </is>
+      </c>
+      <c r="T35" s="1" t="inlineStr">
+        <is>
+          <t>ast_pct</t>
+        </is>
+      </c>
+      <c r="U35" s="1" t="inlineStr">
+        <is>
+          <t>season</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Kevin Durant</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>25</v>
+      </c>
+      <c r="D36" t="n">
+        <v>205.74</v>
+      </c>
+      <c r="E36" t="n">
+        <v>108.86208</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Texas</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>81</v>
+      </c>
+      <c r="L36" t="n">
+        <v>32</v>
+      </c>
+      <c r="M36" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="N36" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O36" t="n">
+        <v>8</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>2013-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>player_name</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>team_abbreviation</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="D37" s="1" t="inlineStr">
+        <is>
+          <t>player_height</t>
+        </is>
+      </c>
+      <c r="E37" s="1" t="inlineStr">
+        <is>
+          <t>player_weight</t>
+        </is>
+      </c>
+      <c r="F37" s="1" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="G37" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="H37" s="1" t="inlineStr">
+        <is>
+          <t>draft_year</t>
+        </is>
+      </c>
+      <c r="I37" s="1" t="inlineStr">
+        <is>
+          <t>draft_round</t>
+        </is>
+      </c>
+      <c r="J37" s="1" t="inlineStr">
+        <is>
+          <t>draft_number</t>
+        </is>
+      </c>
+      <c r="K37" s="1" t="inlineStr">
+        <is>
+          <t>gp</t>
+        </is>
+      </c>
+      <c r="L37" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+      <c r="M37" s="1" t="inlineStr">
+        <is>
+          <t>reb</t>
+        </is>
+      </c>
+      <c r="N37" s="1" t="inlineStr">
+        <is>
+          <t>ast</t>
+        </is>
+      </c>
+      <c r="O37" s="1" t="inlineStr">
+        <is>
+          <t>net_rating</t>
+        </is>
+      </c>
+      <c r="P37" s="1" t="inlineStr">
+        <is>
+          <t>oreb_pct</t>
+        </is>
+      </c>
+      <c r="Q37" s="1" t="inlineStr">
+        <is>
+          <t>dreb_pct</t>
+        </is>
+      </c>
+      <c r="R37" s="1" t="inlineStr">
+        <is>
+          <t>usg_pct</t>
+        </is>
+      </c>
+      <c r="S37" s="1" t="inlineStr">
+        <is>
+          <t>ts_pct</t>
+        </is>
+      </c>
+      <c r="T37" s="1" t="inlineStr">
+        <is>
+          <t>ast_pct</t>
+        </is>
+      </c>
+      <c r="U37" s="1" t="inlineStr">
+        <is>
+          <t>season</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Russell Westbrook</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>26</v>
+      </c>
+      <c r="D38" t="n">
+        <v>190.5</v>
+      </c>
+      <c r="E38" t="n">
+        <v>90.7184</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>UCLA</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>67</v>
+      </c>
+      <c r="L38" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="M38" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="N38" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="O38" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.3720000000000001</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.536</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>2014-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>player_name</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>team_abbreviation</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="D39" s="1" t="inlineStr">
+        <is>
+          <t>player_height</t>
+        </is>
+      </c>
+      <c r="E39" s="1" t="inlineStr">
+        <is>
+          <t>player_weight</t>
+        </is>
+      </c>
+      <c r="F39" s="1" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="G39" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="H39" s="1" t="inlineStr">
+        <is>
+          <t>draft_year</t>
+        </is>
+      </c>
+      <c r="I39" s="1" t="inlineStr">
+        <is>
+          <t>draft_round</t>
+        </is>
+      </c>
+      <c r="J39" s="1" t="inlineStr">
+        <is>
+          <t>draft_number</t>
+        </is>
+      </c>
+      <c r="K39" s="1" t="inlineStr">
+        <is>
+          <t>gp</t>
+        </is>
+      </c>
+      <c r="L39" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+      <c r="M39" s="1" t="inlineStr">
+        <is>
+          <t>reb</t>
+        </is>
+      </c>
+      <c r="N39" s="1" t="inlineStr">
+        <is>
+          <t>ast</t>
+        </is>
+      </c>
+      <c r="O39" s="1" t="inlineStr">
+        <is>
+          <t>net_rating</t>
+        </is>
+      </c>
+      <c r="P39" s="1" t="inlineStr">
+        <is>
+          <t>oreb_pct</t>
+        </is>
+      </c>
+      <c r="Q39" s="1" t="inlineStr">
+        <is>
+          <t>dreb_pct</t>
+        </is>
+      </c>
+      <c r="R39" s="1" t="inlineStr">
+        <is>
+          <t>usg_pct</t>
+        </is>
+      </c>
+      <c r="S39" s="1" t="inlineStr">
+        <is>
+          <t>ts_pct</t>
+        </is>
+      </c>
+      <c r="T39" s="1" t="inlineStr">
+        <is>
+          <t>ast_pct</t>
+        </is>
+      </c>
+      <c r="U39" s="1" t="inlineStr">
+        <is>
+          <t>season</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>Stephen Curry</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>GSW</t>
         </is>
       </c>
-      <c r="C26" t="n">
+      <c r="C40" t="n">
+        <v>28</v>
+      </c>
+      <c r="D40" t="n">
+        <v>190.5</v>
+      </c>
+      <c r="E40" t="n">
+        <v>86.18248</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Davidson</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>79</v>
+      </c>
+      <c r="L40" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="N40" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="O40" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.669</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>2015-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>player_name</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>team_abbreviation</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="D41" s="1" t="inlineStr">
+        <is>
+          <t>player_height</t>
+        </is>
+      </c>
+      <c r="E41" s="1" t="inlineStr">
+        <is>
+          <t>player_weight</t>
+        </is>
+      </c>
+      <c r="F41" s="1" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="G41" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="H41" s="1" t="inlineStr">
+        <is>
+          <t>draft_year</t>
+        </is>
+      </c>
+      <c r="I41" s="1" t="inlineStr">
+        <is>
+          <t>draft_round</t>
+        </is>
+      </c>
+      <c r="J41" s="1" t="inlineStr">
+        <is>
+          <t>draft_number</t>
+        </is>
+      </c>
+      <c r="K41" s="1" t="inlineStr">
+        <is>
+          <t>gp</t>
+        </is>
+      </c>
+      <c r="L41" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+      <c r="M41" s="1" t="inlineStr">
+        <is>
+          <t>reb</t>
+        </is>
+      </c>
+      <c r="N41" s="1" t="inlineStr">
+        <is>
+          <t>ast</t>
+        </is>
+      </c>
+      <c r="O41" s="1" t="inlineStr">
+        <is>
+          <t>net_rating</t>
+        </is>
+      </c>
+      <c r="P41" s="1" t="inlineStr">
+        <is>
+          <t>oreb_pct</t>
+        </is>
+      </c>
+      <c r="Q41" s="1" t="inlineStr">
+        <is>
+          <t>dreb_pct</t>
+        </is>
+      </c>
+      <c r="R41" s="1" t="inlineStr">
+        <is>
+          <t>usg_pct</t>
+        </is>
+      </c>
+      <c r="S41" s="1" t="inlineStr">
+        <is>
+          <t>ts_pct</t>
+        </is>
+      </c>
+      <c r="T41" s="1" t="inlineStr">
+        <is>
+          <t>ast_pct</t>
+        </is>
+      </c>
+      <c r="U41" s="1" t="inlineStr">
+        <is>
+          <t>season</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Russell Westbrook</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>28</v>
+      </c>
+      <c r="D42" t="n">
+        <v>190.5</v>
+      </c>
+      <c r="E42" t="n">
+        <v>90.7184</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>UCLA</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>81</v>
+      </c>
+      <c r="L42" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="M42" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="N42" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="O42" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.5539999999999999</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.5429999999999999</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>2016-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>player_name</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>team_abbreviation</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="D43" s="1" t="inlineStr">
+        <is>
+          <t>player_height</t>
+        </is>
+      </c>
+      <c r="E43" s="1" t="inlineStr">
+        <is>
+          <t>player_weight</t>
+        </is>
+      </c>
+      <c r="F43" s="1" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="G43" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="H43" s="1" t="inlineStr">
+        <is>
+          <t>draft_year</t>
+        </is>
+      </c>
+      <c r="I43" s="1" t="inlineStr">
+        <is>
+          <t>draft_round</t>
+        </is>
+      </c>
+      <c r="J43" s="1" t="inlineStr">
+        <is>
+          <t>draft_number</t>
+        </is>
+      </c>
+      <c r="K43" s="1" t="inlineStr">
+        <is>
+          <t>gp</t>
+        </is>
+      </c>
+      <c r="L43" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+      <c r="M43" s="1" t="inlineStr">
+        <is>
+          <t>reb</t>
+        </is>
+      </c>
+      <c r="N43" s="1" t="inlineStr">
+        <is>
+          <t>ast</t>
+        </is>
+      </c>
+      <c r="O43" s="1" t="inlineStr">
+        <is>
+          <t>net_rating</t>
+        </is>
+      </c>
+      <c r="P43" s="1" t="inlineStr">
+        <is>
+          <t>oreb_pct</t>
+        </is>
+      </c>
+      <c r="Q43" s="1" t="inlineStr">
+        <is>
+          <t>dreb_pct</t>
+        </is>
+      </c>
+      <c r="R43" s="1" t="inlineStr">
+        <is>
+          <t>usg_pct</t>
+        </is>
+      </c>
+      <c r="S43" s="1" t="inlineStr">
+        <is>
+          <t>ts_pct</t>
+        </is>
+      </c>
+      <c r="T43" s="1" t="inlineStr">
+        <is>
+          <t>ast_pct</t>
+        </is>
+      </c>
+      <c r="U43" s="1" t="inlineStr">
+        <is>
+          <t>season</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>James Harden</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>28</v>
+      </c>
+      <c r="D44" t="n">
+        <v>195.58</v>
+      </c>
+      <c r="E44" t="n">
+        <v>99.79024</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Arizona State</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>72</v>
+      </c>
+      <c r="L44" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="N44" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="O44" t="n">
+        <v>10</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.619</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.449</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>2017-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>player_name</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>team_abbreviation</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="D45" s="1" t="inlineStr">
+        <is>
+          <t>player_height</t>
+        </is>
+      </c>
+      <c r="E45" s="1" t="inlineStr">
+        <is>
+          <t>player_weight</t>
+        </is>
+      </c>
+      <c r="F45" s="1" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="G45" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="H45" s="1" t="inlineStr">
+        <is>
+          <t>draft_year</t>
+        </is>
+      </c>
+      <c r="I45" s="1" t="inlineStr">
+        <is>
+          <t>draft_round</t>
+        </is>
+      </c>
+      <c r="J45" s="1" t="inlineStr">
+        <is>
+          <t>draft_number</t>
+        </is>
+      </c>
+      <c r="K45" s="1" t="inlineStr">
+        <is>
+          <t>gp</t>
+        </is>
+      </c>
+      <c r="L45" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+      <c r="M45" s="1" t="inlineStr">
+        <is>
+          <t>reb</t>
+        </is>
+      </c>
+      <c r="N45" s="1" t="inlineStr">
+        <is>
+          <t>ast</t>
+        </is>
+      </c>
+      <c r="O45" s="1" t="inlineStr">
+        <is>
+          <t>net_rating</t>
+        </is>
+      </c>
+      <c r="P45" s="1" t="inlineStr">
+        <is>
+          <t>oreb_pct</t>
+        </is>
+      </c>
+      <c r="Q45" s="1" t="inlineStr">
+        <is>
+          <t>dreb_pct</t>
+        </is>
+      </c>
+      <c r="R45" s="1" t="inlineStr">
+        <is>
+          <t>usg_pct</t>
+        </is>
+      </c>
+      <c r="S45" s="1" t="inlineStr">
+        <is>
+          <t>ts_pct</t>
+        </is>
+      </c>
+      <c r="T45" s="1" t="inlineStr">
+        <is>
+          <t>ast_pct</t>
+        </is>
+      </c>
+      <c r="U45" s="1" t="inlineStr">
+        <is>
+          <t>season</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>James Harden</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>29</v>
+      </c>
+      <c r="D46" t="n">
+        <v>195.58</v>
+      </c>
+      <c r="E46" t="n">
+        <v>99.79024</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Arizona State</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>78</v>
+      </c>
+      <c r="L46" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="M46" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="N46" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O46" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.396</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>2018-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>player_name</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>team_abbreviation</t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="D47" s="1" t="inlineStr">
+        <is>
+          <t>player_height</t>
+        </is>
+      </c>
+      <c r="E47" s="1" t="inlineStr">
+        <is>
+          <t>player_weight</t>
+        </is>
+      </c>
+      <c r="F47" s="1" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="G47" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="H47" s="1" t="inlineStr">
+        <is>
+          <t>draft_year</t>
+        </is>
+      </c>
+      <c r="I47" s="1" t="inlineStr">
+        <is>
+          <t>draft_round</t>
+        </is>
+      </c>
+      <c r="J47" s="1" t="inlineStr">
+        <is>
+          <t>draft_number</t>
+        </is>
+      </c>
+      <c r="K47" s="1" t="inlineStr">
+        <is>
+          <t>gp</t>
+        </is>
+      </c>
+      <c r="L47" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+      <c r="M47" s="1" t="inlineStr">
+        <is>
+          <t>reb</t>
+        </is>
+      </c>
+      <c r="N47" s="1" t="inlineStr">
+        <is>
+          <t>ast</t>
+        </is>
+      </c>
+      <c r="O47" s="1" t="inlineStr">
+        <is>
+          <t>net_rating</t>
+        </is>
+      </c>
+      <c r="P47" s="1" t="inlineStr">
+        <is>
+          <t>oreb_pct</t>
+        </is>
+      </c>
+      <c r="Q47" s="1" t="inlineStr">
+        <is>
+          <t>dreb_pct</t>
+        </is>
+      </c>
+      <c r="R47" s="1" t="inlineStr">
+        <is>
+          <t>usg_pct</t>
+        </is>
+      </c>
+      <c r="S47" s="1" t="inlineStr">
+        <is>
+          <t>ts_pct</t>
+        </is>
+      </c>
+      <c r="T47" s="1" t="inlineStr">
+        <is>
+          <t>ast_pct</t>
+        </is>
+      </c>
+      <c r="U47" s="1" t="inlineStr">
+        <is>
+          <t>season</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>James Harden</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>30</v>
+      </c>
+      <c r="D48" t="n">
+        <v>195.58</v>
+      </c>
+      <c r="E48" t="n">
+        <v>99.79024</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Arizona State</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>68</v>
+      </c>
+      <c r="L48" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="M48" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="N48" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O48" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.626</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>player_name</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>team_abbreviation</t>
+        </is>
+      </c>
+      <c r="C49" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="D49" s="1" t="inlineStr">
+        <is>
+          <t>player_height</t>
+        </is>
+      </c>
+      <c r="E49" s="1" t="inlineStr">
+        <is>
+          <t>player_weight</t>
+        </is>
+      </c>
+      <c r="F49" s="1" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="G49" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="H49" s="1" t="inlineStr">
+        <is>
+          <t>draft_year</t>
+        </is>
+      </c>
+      <c r="I49" s="1" t="inlineStr">
+        <is>
+          <t>draft_round</t>
+        </is>
+      </c>
+      <c r="J49" s="1" t="inlineStr">
+        <is>
+          <t>draft_number</t>
+        </is>
+      </c>
+      <c r="K49" s="1" t="inlineStr">
+        <is>
+          <t>gp</t>
+        </is>
+      </c>
+      <c r="L49" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+      <c r="M49" s="1" t="inlineStr">
+        <is>
+          <t>reb</t>
+        </is>
+      </c>
+      <c r="N49" s="1" t="inlineStr">
+        <is>
+          <t>ast</t>
+        </is>
+      </c>
+      <c r="O49" s="1" t="inlineStr">
+        <is>
+          <t>net_rating</t>
+        </is>
+      </c>
+      <c r="P49" s="1" t="inlineStr">
+        <is>
+          <t>oreb_pct</t>
+        </is>
+      </c>
+      <c r="Q49" s="1" t="inlineStr">
+        <is>
+          <t>dreb_pct</t>
+        </is>
+      </c>
+      <c r="R49" s="1" t="inlineStr">
+        <is>
+          <t>usg_pct</t>
+        </is>
+      </c>
+      <c r="S49" s="1" t="inlineStr">
+        <is>
+          <t>ts_pct</t>
+        </is>
+      </c>
+      <c r="T49" s="1" t="inlineStr">
+        <is>
+          <t>ast_pct</t>
+        </is>
+      </c>
+      <c r="U49" s="1" t="inlineStr">
+        <is>
+          <t>season</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Stephen Curry</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
         <v>33</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D50" t="n">
         <v>190.5</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E50" t="n">
         <v>83.91452</v>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Davidson</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="K26" t="n">
+      <c r="K50" t="n">
         <v>63</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L50" t="n">
         <v>32</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M50" t="n">
         <v>5.5</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N50" t="n">
         <v>5.8</v>
       </c>
-      <c r="O26" t="n">
+      <c r="O50" t="n">
         <v>4.6</v>
       </c>
-      <c r="P26" t="n">
+      <c r="P50" t="n">
         <v>0.013</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q50" t="n">
         <v>0.135</v>
       </c>
-      <c r="R26" t="n">
+      <c r="R50" t="n">
         <v>0.331</v>
       </c>
-      <c r="S26" t="n">
+      <c r="S50" t="n">
         <v>0.655</v>
       </c>
-      <c r="T26" t="n">
+      <c r="T50" t="n">
         <v>0.283</v>
       </c>
-      <c r="U26" t="inlineStr">
+      <c r="U50" t="inlineStr">
         <is>
           <t>2020-21</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>